--- a/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Segment</t>
   </si>
@@ -41,10 +41,10 @@
     <t>Pub</t>
   </si>
   <si>
-    <t>Segment001</t>
-  </si>
-  <si>
-    <t>Segment002</t>
+    <t>PubsandBars</t>
+  </si>
+  <si>
+    <t>HoReCa</t>
   </si>
   <si>
     <t>Segment003</t>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>No Taps</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t> left mid</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>right mid</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>Center / Left</t>
@@ -80,6 +95,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -185,14 +201,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,17 +307,18 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.87755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.19387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.33673469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.44387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,28 +328,28 @@
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.1</v>
@@ -352,10 +369,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.1</v>
@@ -375,36 +392,36 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>1.2</v>
@@ -416,13 +433,13 @@
         <v>1.2</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Segment</t>
   </si>
@@ -32,22 +32,34 @@
     <t>Secondary</t>
   </si>
   <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Mage bar</t>
-  </si>
-  <si>
-    <t>Pub</t>
-  </si>
-  <si>
-    <t>PubsandBars</t>
-  </si>
-  <si>
-    <t>HoReCa</t>
-  </si>
-  <si>
-    <t>Segment003</t>
+    <t>Casual Restaurant</t>
+  </si>
+  <si>
+    <t>Formal Restaurant</t>
+  </si>
+  <si>
+    <t>Hotel Bar</t>
+  </si>
+  <si>
+    <t>Neighbourhood bar Mainstream</t>
+  </si>
+  <si>
+    <t>Neighbourhood bar Value</t>
+  </si>
+  <si>
+    <t>City Centre Pub</t>
+  </si>
+  <si>
+    <t>Stylish Bar</t>
+  </si>
+  <si>
+    <t>3rd Space</t>
+  </si>
+  <si>
+    <t>Night club</t>
+  </si>
+  <si>
+    <t>Sports Club/Bar</t>
   </si>
   <si>
     <t>Scene Type</t>
@@ -87,8 +99,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -127,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -142,6 +156,29 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -168,13 +205,33 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -198,17 +255,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -226,66 +284,110 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>0.8</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="3" t="n">
         <v>0.9</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
+      <c r="B4" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0.7</v>
+      <c r="B5" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0.6</v>
+      <c r="B6" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0.5</v>
+      <c r="B7" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -312,127 +414,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.12755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="A2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="7" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>1.1</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="7" t="n">
         <v>1.75</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="n">
         <v>0.9</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="7" t="n">
         <v>1.3</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="7" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="7" t="n">
         <v>1.75</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="7" t="n">
         <v>1.2</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="7" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bar Type Weight" sheetId="1" state="visible" r:id="rId2"/>
@@ -83,7 +83,7 @@
     <t>right</t>
   </si>
   <si>
-    <t>Center / Left</t>
+    <t>CENTRE/LEFT</t>
   </si>
   <si>
     <t>More 9</t>
@@ -92,7 +92,7 @@
     <t>Less 8 </t>
   </si>
   <si>
-    <t>Right</t>
+    <t>RIGHT P2P</t>
   </si>
 </sst>
 </file>
@@ -257,16 +257,14 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,20 +406,18 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45408163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
@@ -71,7 +71,7 @@
     <t>left</t>
   </si>
   <si>
-    <t> left mid</t>
+    <t>left mid</t>
   </si>
   <si>
     <t>middle</t>
@@ -89,7 +89,7 @@
     <t>More 9</t>
   </si>
   <si>
-    <t>Less 8 </t>
+    <t>Less 8</t>
   </si>
   <si>
     <t>RIGHT P2P</t>
@@ -263,8 +263,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -407,17 +409,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.32142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
+++ b/Projects/DIAGEOIE_SAND/Data/Brand Score.xlsx
@@ -92,7 +92,7 @@
     <t>Less 8</t>
   </si>
   <si>
-    <t>RIGHT P2P</t>
+    <t>RIGHT</t>
   </si>
 </sst>
 </file>
@@ -263,10 +263,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -409,19 +409,19 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1224489795918"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.32142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
